--- a/templates/NLSA_general_report.xlsx
+++ b/templates/NLSA_general_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nordic\Projets\ProgramationDivers\NordicLamSplitAnalysis\NLSA_Code\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0C3B47-6D3A-4A30-B956-7FA121BBC768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07AF16-7F2C-49EB-A62B-6AEE2D31C346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16080" yWindow="8460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,35 +33,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ReportType</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Nordic Lam specifications:</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
     <t>Nordic Lam Split Analyser General Repport</t>
   </si>
   <si>
     <t>Nordic_Lam_type</t>
   </si>
   <si>
-    <t>Lookup</t>
-  </si>
-  <si>
     <t>Ply</t>
   </si>
   <si>
@@ -249,6 +231,15 @@
   </si>
   <si>
     <t>perpendicular_tension_strain_analysis_ratio</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>report_type</t>
   </si>
 </sst>
 </file>
@@ -597,7 +588,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -611,278 +602,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/templates/NLSA_general_report.xlsx
+++ b/templates/NLSA_general_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nordic\Projets\ProgramationDivers\NordicLamSplitAnalysis\NLSA_Code\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED07AF16-7F2C-49EB-A62B-6AEE2D31C346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B296E32-0994-42A5-B54F-98E90CD20FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="8460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="1095" windowWidth="16440" windowHeight="27825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed" sheetId="1" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>K_H</t>
   </si>
   <si>
-    <t>shear_method_a_used</t>
-  </si>
-  <si>
     <t>selected_calc_method</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
   </si>
   <si>
     <t>report_type</t>
+  </si>
+  <si>
+    <t>shear_method_a_used_txt</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,15 +603,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -686,7 +686,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>13</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>20</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>36</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>38</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>42</v>
